--- a/功能/Hero.xlsx
+++ b/功能/Hero.xlsx
@@ -1233,10 +1233,6 @@
     <t>GiftPack</t>
   </si>
   <si>
-    <t>/game/module/daojutishi/cfg/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北条喵成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1392,6 +1388,10 @@
   </si>
   <si>
     <t>毛利元就的第三子。继承小早川家，率领水军攻略山阳。与兄长吉川元春并称“毛利两川”。受秀吉重用，五大老之一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/module/hero/cfg/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2139,8 +2139,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2222,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -2358,25 +2358,25 @@
         <v>34</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>338</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2387,28 +2387,28 @@
         <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>337</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -2474,28 +2474,28 @@
         <v>171</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="30">
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>346</v>
-      </c>
       <c r="J10" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="27">
@@ -2503,28 +2503,28 @@
         <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E11" s="30">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>357</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -2532,28 +2532,28 @@
         <v>128</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="30">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -2561,28 +2561,28 @@
         <v>155</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="27">
@@ -2590,28 +2590,28 @@
         <v>84</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H14" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:65">
